--- a/admin/freemix/public/templates/goals-template.xlsx
+++ b/admin/freemix/public/templates/goals-template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>目标名称</t>
   </si>
@@ -35,10 +35,31 @@
     <t>目标描述</t>
   </si>
   <si>
+    <t>截止日期</t>
+  </si>
+  <si>
     <t>优先级</t>
   </si>
   <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>父节点目标</t>
+  </si>
+  <si>
+    <t>第一个父目标</t>
+  </si>
+  <si>
     <t>高</t>
+  </si>
+  <si>
+    <t>子目标3213131</t>
+  </si>
+  <si>
+    <t>第二</t>
+  </si>
+  <si>
+    <t>第三</t>
   </si>
 </sst>
 </file>
@@ -51,7 +72,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +86,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -531,137 +558,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,6 +696,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,40 +1234,129 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="10.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>33333</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>22323</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>45930</v>
+      </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>222</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>6666</v>
+      </c>
+      <c r="B5">
+        <v>6666</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45920</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>6667</v>
+      </c>
+      <c r="B6">
+        <v>6667</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45921</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
